--- a/medicine/Médecine vétérinaire/Norbert_Anne/Norbert_Anne.xlsx
+++ b/medicine/Médecine vétérinaire/Norbert_Anne/Norbert_Anne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Norbert Anne est un homme politique français né le 5 mai 1840 à Fresney-le-Puceux (Calvados) et décédé le 5 novembre 1894 à Caen (Calvados).
 Vétérinaire, il est président de l'association vétérinaire normande, chef sanitaire du département du Calvados. Conseiller municipal de Caen en 1882, conseiller général en 1883, il est sénateur du Calvados, siégeant à gauche, de 1892 à 1894.
@@ -512,7 +524,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Norbert Anne », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]
  Portail de la politique française   Portail du Calvados   Portail de la médecine vétérinaire                   </t>
